--- a/report/pics/graphs_seq.xlsx
+++ b/report/pics/graphs_seq.xlsx
@@ -43,34 +43,34 @@
     <t xml:space="preserve">GRU</t>
   </si>
   <si>
-    <t xml:space="preserve">seq0+w2v_f100</t>
+    <t xml:space="preserve">seqv0+w2v_f100</t>
   </si>
   <si>
-    <t xml:space="preserve">seq0+w2v_f300</t>
+    <t xml:space="preserve">seqv0+w2v_f300</t>
   </si>
   <si>
-    <t xml:space="preserve">seq0+w2v_f600</t>
+    <t xml:space="preserve">seqv0+w2v_f600</t>
   </si>
   <si>
-    <t xml:space="preserve">seq0+w2v_bio02</t>
+    <t xml:space="preserve">seqv0+w2v_bio02</t>
   </si>
   <si>
-    <t xml:space="preserve">seq0+w2v_bio30</t>
+    <t xml:space="preserve">seqv0+w2v_bio30</t>
   </si>
   <si>
-    <t xml:space="preserve">seq1+w2v_f100</t>
+    <t xml:space="preserve">seqv1+w2v_f100</t>
   </si>
   <si>
-    <t xml:space="preserve">seq1+w2v_f300</t>
+    <t xml:space="preserve">seqv1+w2v_f300</t>
   </si>
   <si>
-    <t xml:space="preserve">seq1+w2v_f600</t>
+    <t xml:space="preserve">seqv1+w2v_f600</t>
   </si>
   <si>
-    <t xml:space="preserve">seq1+w2v_bio02</t>
+    <t xml:space="preserve">seqv1+w2v_bio02</t>
   </si>
   <si>
-    <t xml:space="preserve">seq1+w2v_bio30</t>
+    <t xml:space="preserve">seqv1+w2v_bio30</t>
   </si>
 </sst>
 </file>
@@ -248,7 +248,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -296,34 +296,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>seq0+w2v_f100</c:v>
+                  <c:v>seqv0+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>seq0+w2v_f300</c:v>
+                  <c:v>seqv0+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>seq0+w2v_f600</c:v>
+                  <c:v>seqv0+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>seq0+w2v_bio02</c:v>
+                  <c:v>seqv0+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>seq0+w2v_bio30</c:v>
+                  <c:v>seqv0+w2v_bio30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>seq1+w2v_f100</c:v>
+                  <c:v>seqv1+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>seq1+w2v_f300</c:v>
+                  <c:v>seqv1+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seq1+w2v_f600</c:v>
+                  <c:v>seqv1+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>seq1+w2v_bio02</c:v>
+                  <c:v>seqv1+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>seq1+w2v_bio30</c:v>
+                  <c:v>seqv1+w2v_bio30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -406,34 +406,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>seq0+w2v_f100</c:v>
+                  <c:v>seqv0+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>seq0+w2v_f300</c:v>
+                  <c:v>seqv0+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>seq0+w2v_f600</c:v>
+                  <c:v>seqv0+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>seq0+w2v_bio02</c:v>
+                  <c:v>seqv0+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>seq0+w2v_bio30</c:v>
+                  <c:v>seqv0+w2v_bio30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>seq1+w2v_f100</c:v>
+                  <c:v>seqv1+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>seq1+w2v_f300</c:v>
+                  <c:v>seqv1+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seq1+w2v_f600</c:v>
+                  <c:v>seqv1+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>seq1+w2v_bio02</c:v>
+                  <c:v>seqv1+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>seq1+w2v_bio30</c:v>
+                  <c:v>seqv1+w2v_bio30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -516,34 +516,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>seq0+w2v_f100</c:v>
+                  <c:v>seqv0+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>seq0+w2v_f300</c:v>
+                  <c:v>seqv0+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>seq0+w2v_f600</c:v>
+                  <c:v>seqv0+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>seq0+w2v_bio02</c:v>
+                  <c:v>seqv0+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>seq0+w2v_bio30</c:v>
+                  <c:v>seqv0+w2v_bio30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>seq1+w2v_f100</c:v>
+                  <c:v>seqv1+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>seq1+w2v_f300</c:v>
+                  <c:v>seqv1+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seq1+w2v_f600</c:v>
+                  <c:v>seqv1+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>seq1+w2v_bio02</c:v>
+                  <c:v>seqv1+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>seq1+w2v_bio30</c:v>
+                  <c:v>seqv1+w2v_bio30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -590,11 +590,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="38327115"/>
-        <c:axId val="88987761"/>
+        <c:axId val="32757701"/>
+        <c:axId val="87468212"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38327115"/>
+        <c:axId val="32757701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,14 +629,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88987761"/>
+        <c:crossAx val="87468212"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88987761"/>
+        <c:axId val="87468212"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38327115"/>
+        <c:crossAx val="32757701"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -754,7 +754,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -802,34 +802,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>seq0+w2v_f100</c:v>
+                  <c:v>seqv0+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>seq0+w2v_f300</c:v>
+                  <c:v>seqv0+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>seq0+w2v_f600</c:v>
+                  <c:v>seqv0+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>seq0+w2v_bio02</c:v>
+                  <c:v>seqv0+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>seq0+w2v_bio30</c:v>
+                  <c:v>seqv0+w2v_bio30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>seq1+w2v_f100</c:v>
+                  <c:v>seqv1+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>seq1+w2v_f300</c:v>
+                  <c:v>seqv1+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seq1+w2v_f600</c:v>
+                  <c:v>seqv1+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>seq1+w2v_bio02</c:v>
+                  <c:v>seqv1+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>seq1+w2v_bio30</c:v>
+                  <c:v>seqv1+w2v_bio30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -912,34 +912,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>seq0+w2v_f100</c:v>
+                  <c:v>seqv0+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>seq0+w2v_f300</c:v>
+                  <c:v>seqv0+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>seq0+w2v_f600</c:v>
+                  <c:v>seqv0+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>seq0+w2v_bio02</c:v>
+                  <c:v>seqv0+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>seq0+w2v_bio30</c:v>
+                  <c:v>seqv0+w2v_bio30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>seq1+w2v_f100</c:v>
+                  <c:v>seqv1+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>seq1+w2v_f300</c:v>
+                  <c:v>seqv1+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seq1+w2v_f600</c:v>
+                  <c:v>seqv1+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>seq1+w2v_bio02</c:v>
+                  <c:v>seqv1+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>seq1+w2v_bio30</c:v>
+                  <c:v>seqv1+w2v_bio30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1022,34 +1022,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>seq0+w2v_f100</c:v>
+                  <c:v>seqv0+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>seq0+w2v_f300</c:v>
+                  <c:v>seqv0+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>seq0+w2v_f600</c:v>
+                  <c:v>seqv0+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>seq0+w2v_bio02</c:v>
+                  <c:v>seqv0+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>seq0+w2v_bio30</c:v>
+                  <c:v>seqv0+w2v_bio30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>seq1+w2v_f100</c:v>
+                  <c:v>seqv1+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>seq1+w2v_f300</c:v>
+                  <c:v>seqv1+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seq1+w2v_f600</c:v>
+                  <c:v>seqv1+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>seq1+w2v_bio02</c:v>
+                  <c:v>seqv1+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>seq1+w2v_bio30</c:v>
+                  <c:v>seqv1+w2v_bio30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1096,11 +1096,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="28008864"/>
-        <c:axId val="18570100"/>
+        <c:axId val="28498340"/>
+        <c:axId val="69728361"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="28008864"/>
+        <c:axId val="28498340"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,14 +1135,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18570100"/>
+        <c:crossAx val="69728361"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18570100"/>
+        <c:axId val="69728361"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,7 +1224,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28008864"/>
+        <c:crossAx val="28498340"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1260,7 +1260,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1318,34 +1318,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>seq0+w2v_f100</c:v>
+                  <c:v>seqv0+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>seq0+w2v_f300</c:v>
+                  <c:v>seqv0+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>seq0+w2v_f600</c:v>
+                  <c:v>seqv0+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>seq0+w2v_bio02</c:v>
+                  <c:v>seqv0+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>seq0+w2v_bio30</c:v>
+                  <c:v>seqv0+w2v_bio30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>seq1+w2v_f100</c:v>
+                  <c:v>seqv1+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>seq1+w2v_f300</c:v>
+                  <c:v>seqv1+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seq1+w2v_f600</c:v>
+                  <c:v>seqv1+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>seq1+w2v_bio02</c:v>
+                  <c:v>seqv1+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>seq1+w2v_bio30</c:v>
+                  <c:v>seqv1+w2v_bio30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1440,34 +1440,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>seq0+w2v_f100</c:v>
+                  <c:v>seqv0+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>seq0+w2v_f300</c:v>
+                  <c:v>seqv0+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>seq0+w2v_f600</c:v>
+                  <c:v>seqv0+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>seq0+w2v_bio02</c:v>
+                  <c:v>seqv0+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>seq0+w2v_bio30</c:v>
+                  <c:v>seqv0+w2v_bio30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>seq1+w2v_f100</c:v>
+                  <c:v>seqv1+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>seq1+w2v_f300</c:v>
+                  <c:v>seqv1+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seq1+w2v_f600</c:v>
+                  <c:v>seqv1+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>seq1+w2v_bio02</c:v>
+                  <c:v>seqv1+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>seq1+w2v_bio30</c:v>
+                  <c:v>seqv1+w2v_bio30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1562,34 +1562,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>seq0+w2v_f100</c:v>
+                  <c:v>seqv0+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>seq0+w2v_f300</c:v>
+                  <c:v>seqv0+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>seq0+w2v_f600</c:v>
+                  <c:v>seqv0+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>seq0+w2v_bio02</c:v>
+                  <c:v>seqv0+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>seq0+w2v_bio30</c:v>
+                  <c:v>seqv0+w2v_bio30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>seq1+w2v_f100</c:v>
+                  <c:v>seqv1+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>seq1+w2v_f300</c:v>
+                  <c:v>seqv1+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seq1+w2v_f600</c:v>
+                  <c:v>seqv1+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>seq1+w2v_bio02</c:v>
+                  <c:v>seqv1+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>seq1+w2v_bio30</c:v>
+                  <c:v>seqv1+w2v_bio30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1643,11 +1643,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="8709235"/>
-        <c:axId val="12074165"/>
+        <c:axId val="95900960"/>
+        <c:axId val="12097009"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8709235"/>
+        <c:axId val="95900960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,14 +1682,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12074165"/>
+        <c:crossAx val="12097009"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12074165"/>
+        <c:axId val="12097009"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,7 +1771,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8709235"/>
+        <c:crossAx val="95900960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1808,7 +1808,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1866,34 +1866,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>seq0+w2v_f100</c:v>
+                  <c:v>seqv0+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>seq0+w2v_f300</c:v>
+                  <c:v>seqv0+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>seq0+w2v_f600</c:v>
+                  <c:v>seqv0+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>seq0+w2v_bio02</c:v>
+                  <c:v>seqv0+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>seq0+w2v_bio30</c:v>
+                  <c:v>seqv0+w2v_bio30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>seq1+w2v_f100</c:v>
+                  <c:v>seqv1+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>seq1+w2v_f300</c:v>
+                  <c:v>seqv1+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seq1+w2v_f600</c:v>
+                  <c:v>seqv1+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>seq1+w2v_bio02</c:v>
+                  <c:v>seqv1+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>seq1+w2v_bio30</c:v>
+                  <c:v>seqv1+w2v_bio30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1988,34 +1988,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>seq0+w2v_f100</c:v>
+                  <c:v>seqv0+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>seq0+w2v_f300</c:v>
+                  <c:v>seqv0+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>seq0+w2v_f600</c:v>
+                  <c:v>seqv0+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>seq0+w2v_bio02</c:v>
+                  <c:v>seqv0+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>seq0+w2v_bio30</c:v>
+                  <c:v>seqv0+w2v_bio30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>seq1+w2v_f100</c:v>
+                  <c:v>seqv1+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>seq1+w2v_f300</c:v>
+                  <c:v>seqv1+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seq1+w2v_f600</c:v>
+                  <c:v>seqv1+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>seq1+w2v_bio02</c:v>
+                  <c:v>seqv1+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>seq1+w2v_bio30</c:v>
+                  <c:v>seqv1+w2v_bio30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2110,34 +2110,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>seq0+w2v_f100</c:v>
+                  <c:v>seqv0+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>seq0+w2v_f300</c:v>
+                  <c:v>seqv0+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>seq0+w2v_f600</c:v>
+                  <c:v>seqv0+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>seq0+w2v_bio02</c:v>
+                  <c:v>seqv0+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>seq0+w2v_bio30</c:v>
+                  <c:v>seqv0+w2v_bio30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>seq1+w2v_f100</c:v>
+                  <c:v>seqv1+w2v_f100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>seq1+w2v_f300</c:v>
+                  <c:v>seqv1+w2v_f300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>seq1+w2v_f600</c:v>
+                  <c:v>seqv1+w2v_f600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>seq1+w2v_bio02</c:v>
+                  <c:v>seqv1+w2v_bio02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>seq1+w2v_bio30</c:v>
+                  <c:v>seqv1+w2v_bio30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2191,11 +2191,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="98027238"/>
-        <c:axId val="31446440"/>
+        <c:axId val="46206845"/>
+        <c:axId val="39063193"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98027238"/>
+        <c:axId val="46206845"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,14 +2230,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31446440"/>
+        <c:crossAx val="39063193"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31446440"/>
+        <c:axId val="39063193"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,7 +2319,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98027238"/>
+        <c:crossAx val="46206845"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2367,9 +2367,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>168480</xdr:colOff>
+      <xdr:colOff>168120</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2378,7 +2378,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="277560" y="2266200"/>
-        <a:ext cx="4719960" cy="2657880"/>
+        <a:ext cx="4719600" cy="2657520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2397,9 +2397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>746280</xdr:colOff>
+      <xdr:colOff>745920</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2408,7 +2408,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5598000" y="2139120"/>
-        <a:ext cx="4854240" cy="2730240"/>
+        <a:ext cx="4853880" cy="2729880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2427,9 +2427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>168120</xdr:colOff>
+      <xdr:colOff>167760</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2438,7 +2438,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="277200" y="5077440"/>
-        <a:ext cx="4719960" cy="2657880"/>
+        <a:ext cx="4719600" cy="2657520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2457,9 +2457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2468,7 +2468,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5667120" y="5068080"/>
-        <a:ext cx="4854240" cy="2730240"/>
+        <a:ext cx="4853880" cy="2729880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2488,8 +2488,8 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/report/pics/graphs_seq.xlsx
+++ b/report/pics/graphs_seq.xlsx
@@ -163,12 +163,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,7 +252,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -263,7 +267,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -330,39 +334,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:f>Sheet1!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.8758</c:v>
+                  <c:v>0.5489</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8779</c:v>
+                  <c:v>0.5846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8832</c:v>
+                  <c:v>0.6373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8642</c:v>
+                  <c:v>0.5464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8757</c:v>
+                  <c:v>0.5888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8744</c:v>
+                  <c:v>0.5565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8762</c:v>
+                  <c:v>0.6074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8805</c:v>
+                  <c:v>0.5972</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.277</c:v>
+                  <c:v>0.468132708808</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8658</c:v>
+                  <c:v>0.5771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,7 +377,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Sheet1!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -440,39 +444,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$12</c:f>
+              <c:f>Sheet1!$I$3:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.8749</c:v>
+                  <c:v>0.5499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8922</c:v>
+                  <c:v>0.6664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8901</c:v>
+                  <c:v>0.6768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8931</c:v>
+                  <c:v>0.6831</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8939</c:v>
+                  <c:v>0.6794</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.891</c:v>
+                  <c:v>0.6862</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8948</c:v>
+                  <c:v>0.6829</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8908</c:v>
+                  <c:v>0.6556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.330082569877</c:v>
+                  <c:v>0.6654</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.895</c:v>
+                  <c:v>0.6874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,7 +487,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -550,39 +554,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$12</c:f>
+              <c:f>Sheet1!$M$3:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.8953</c:v>
+                  <c:v>0.6902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8967</c:v>
+                  <c:v>0.6957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8893</c:v>
+                  <c:v>0.6651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8804</c:v>
+                  <c:v>0.6128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8868</c:v>
+                  <c:v>0.6313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8955</c:v>
+                  <c:v>0.693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8967</c:v>
+                  <c:v>0.6776</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8955</c:v>
+                  <c:v>0.6881</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8815</c:v>
+                  <c:v>0.6273</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8907</c:v>
+                  <c:v>0.6769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,11 +594,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="45415409"/>
-        <c:axId val="76349527"/>
+        <c:axId val="32875197"/>
+        <c:axId val="43292619"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45415409"/>
+        <c:axId val="32875197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,16 +633,526 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76349527"/>
+        <c:crossAx val="43292619"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76349527"/>
+        <c:axId val="43292619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>F1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32875197"/>
+        <c:crossesAt val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>seqv0+w2v_f100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>seqv0+w2v_f300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>seqv0+w2v_f600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>seqv0+w2v_bio02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>seqv0+w2v_bio30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>seqv1+w2v_f100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>seqv1+w2v_f300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>seqv1+w2v_f600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>seqv1+w2v_bio02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>seqv1+w2v_bio30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.8758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8642</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8762</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>seqv0+w2v_f100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>seqv0+w2v_f300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>seqv0+w2v_f600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>seqv0+w2v_bio02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>seqv0+w2v_bio30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>seqv1+w2v_f100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>seqv1+w2v_f300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>seqv1+w2v_f600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>seqv1+w2v_bio02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>seqv1+w2v_bio30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.8749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8939</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.893</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>seqv0+w2v_f100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>seqv0+w2v_f300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>seqv0+w2v_f600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>seqv0+w2v_bio02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>seqv0+w2v_bio30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>seqv1+w2v_f100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>seqv1+w2v_f300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>seqv1+w2v_f600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>seqv1+w2v_bio02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>seqv1+w2v_bio30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.8953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8955</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8815</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="26099998"/>
+        <c:axId val="75804520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="26099998"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75804520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75804520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -718,514 +1232,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45415409"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Conv1D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>seqv0+w2v_f100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>seqv0+w2v_f300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>seqv0+w2v_f600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>seqv0+w2v_bio02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>seqv0+w2v_bio30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>seqv1+w2v_f100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>seqv1+w2v_f300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>seqv1+w2v_f600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>seqv1+w2v_bio02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>seqv1+w2v_bio30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.5489</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5846</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6373</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5464</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5888</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5972</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.271</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5771</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LSTM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>seqv0+w2v_f100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>seqv0+w2v_f300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>seqv0+w2v_f600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>seqv0+w2v_bio02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>seqv0+w2v_bio30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>seqv1+w2v_f100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>seqv1+w2v_f300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>seqv1+w2v_f600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>seqv1+w2v_bio02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>seqv1+w2v_bio30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$3:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.5499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6768</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6831</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6794</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6862</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6829</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6556</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.286232210657</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6874</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GRU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>seqv0+w2v_f100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>seqv0+w2v_f300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>seqv0+w2v_f600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>seqv0+w2v_bio02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>seqv0+w2v_bio30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>seqv1+w2v_f100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>seqv1+w2v_f300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>seqv1+w2v_f600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>seqv1+w2v_bio02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>seqv1+w2v_bio30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$3:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.6902</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6957</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6651</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6128</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6313</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.693</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6776</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6881</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6273</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6769</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="36400051"/>
-        <c:axId val="61644910"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="36400051"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="61644910"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="61644910"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>F1</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36400051"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="26099998"/>
+        <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1271,9 +1279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1282,7 +1290,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="277560" y="2266200"/>
-        <a:ext cx="5400000" cy="3240000"/>
+        <a:ext cx="5399640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1303,7 +1311,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>32760</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1312,7 +1320,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5964120" y="2253960"/>
-        <a:ext cx="5400000" cy="3240000"/>
+        <a:ext cx="5400000" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1332,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1751,39 +1759,39 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0.563461070399</v>
+        <v>0.624869282166</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.242865475657</v>
+        <v>0.4024</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.277</v>
+        <v>0.8565</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0.9035</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0.0492</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0.330082569877</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0.286232210657</v>
-      </c>
-      <c r="J11" s="2" t="n">
+        <v>0.468132708808</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.7702</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0.6654</v>
+      </c>
+      <c r="J11" s="3" t="n">
         <v>0.7228</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="3" t="n">
         <v>0.5773</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="3" t="n">
         <v>0.8815</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="M11" s="3" t="n">
         <v>0.6273</v>
       </c>
     </row>

--- a/report/pics/graphs_seq.xlsx
+++ b/report/pics/graphs_seq.xlsx
@@ -252,7 +252,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -594,11 +594,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="32875197"/>
-        <c:axId val="43292619"/>
+        <c:axId val="38512725"/>
+        <c:axId val="31223936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32875197"/>
+        <c:axId val="38512725"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,14 +633,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43292619"/>
+        <c:crossAx val="31223936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43292619"/>
+        <c:axId val="31223936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -724,7 +724,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32875197"/>
+        <c:crossAx val="38512725"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -760,7 +760,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1102,11 +1102,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="26099998"/>
-        <c:axId val="75804520"/>
+        <c:axId val="19900588"/>
+        <c:axId val="83712233"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26099998"/>
+        <c:axId val="19900588"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,18 +1141,18 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75804520"/>
+        <c:crossAx val="83712233"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75804520"/>
+        <c:axId val="83712233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.6"/>
+          <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1232,7 +1232,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26099998"/>
+        <c:crossAx val="19900588"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1279,9 +1279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>35280</xdr:colOff>
+      <xdr:colOff>34920</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1290,7 +1290,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="277560" y="2266200"/>
-        <a:ext cx="5399640" cy="3239640"/>
+        <a:ext cx="5399280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1309,9 +1309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>32760</xdr:colOff>
+      <xdr:colOff>32400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1320,7 +1320,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5964120" y="2253960"/>
-        <a:ext cx="5400000" cy="3239640"/>
+        <a:ext cx="5399640" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1341,7 +1341,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
+      <selection pane="topLeft" activeCell="L37" activeCellId="0" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
